--- a/Data_processed/PL_F16.xlsx
+++ b/Data_processed/PL_F16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/Desktop/Tris_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/github/McHugh-et-al/Data_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D677E613-087F-764A-AC59-65BD40A9DBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBB10F6-2D04-2B47-A2A7-EBCBFA4678C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="880" windowWidth="14480" windowHeight="15340" firstSheet="2" activeTab="7" xr2:uid="{2CC910C3-2A11-9A4A-BF0C-41D4C0BFFAB0}"/>
+    <workbookView xWindow="220" yWindow="660" windowWidth="24020" windowHeight="15340" activeTab="7" xr2:uid="{2CC910C3-2A11-9A4A-BF0C-41D4C0BFFAB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Thin_wire_control" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="14">
   <si>
     <t>PAR</t>
   </si>
@@ -69,6 +69,12 @@
   <si>
     <t>Acrosorium_AC</t>
   </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pmax</t>
+  </si>
 </sst>
 </file>
 
@@ -103,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4669B89-DE26-D84C-B9D6-A3FE4DC25812}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D25"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +447,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -454,8 +467,14 @@
       <c r="D2">
         <v>-5.1290536068828594E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -468,8 +487,14 @@
       <c r="D3">
         <v>-6.6181336863004644E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -482,8 +507,14 @@
       <c r="D4">
         <v>1.3236267372600927E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -496,8 +527,14 @@
       <c r="D5">
         <v>2.7134348113831901E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -510,8 +547,14 @@
       <c r="D6">
         <v>6.9159497021839856E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -524,8 +567,14 @@
       <c r="D7">
         <v>7.2799470549305106E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -538,8 +587,14 @@
       <c r="D8">
         <v>1.1780277961614824E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -552,8 +607,14 @@
       <c r="D9">
         <v>1.4791528788881536E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -566,8 +627,14 @@
       <c r="D10">
         <v>-4.638297872340426E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -580,8 +647,14 @@
       <c r="D11">
         <v>-1.7872340425531912E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -594,8 +667,14 @@
       <c r="D12">
         <v>4.2553191489361699E-7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -608,8 +687,14 @@
       <c r="D13">
         <v>2.3829787234042553E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -622,8 +707,14 @@
       <c r="D14">
         <v>6.2127659574468078E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -636,8 +727,14 @@
       <c r="D15">
         <v>6.723404255319148E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -650,8 +747,14 @@
       <c r="D16">
         <v>1.0893617021276595E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -664,8 +767,14 @@
       <c r="D17">
         <v>1.348936170212766E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -678,8 +787,14 @@
       <c r="D18">
         <v>-5.1035146846413096E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -692,8 +807,14 @@
       <c r="D19">
         <v>-5.777563793933558E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -706,8 +827,14 @@
       <c r="D20">
         <v>8.6663456909003366E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -720,8 +847,14 @@
       <c r="D21">
         <v>1.8777082330284063E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -734,8 +867,14 @@
       <c r="D22">
         <v>1.1169956668271546E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -748,8 +887,14 @@
       <c r="D23">
         <v>9.3403948001925861E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -762,8 +907,14 @@
       <c r="D24">
         <v>1.5214251324025034E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.4009489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -775,6 +926,12 @@
       </c>
       <c r="D25">
         <v>1.5214251324025034E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.2158569999999999E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.4009489</v>
       </c>
     </row>
   </sheetData>
@@ -784,15 +941,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEA0EE0-549D-394A-AA08-1B5E809E3D25}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +962,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -819,8 +982,14 @@
       <c r="D2">
         <v>-3.6206896551724136E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -833,8 +1002,14 @@
       <c r="D3">
         <v>2.8017241379310345E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -847,8 +1022,14 @@
       <c r="D4">
         <v>1.5948275862068967E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -861,8 +1042,14 @@
       <c r="D5">
         <v>5.5603448275862071E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -875,8 +1062,14 @@
       <c r="D6">
         <v>8.4051724137931041E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -889,8 +1082,14 @@
       <c r="D7">
         <v>9.3103448275862075E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -903,8 +1102,14 @@
       <c r="D8">
         <v>1.1293103448275864E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -917,8 +1122,14 @@
       <c r="D9">
         <v>9.6120689655172415E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -931,8 +1142,14 @@
       <c r="D10">
         <v>-9.3548387096774183E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -945,8 +1162,14 @@
       <c r="D11">
         <v>3.193548387096774E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -959,8 +1182,14 @@
       <c r="D12">
         <v>4.4838709677419349E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -973,8 +1202,14 @@
       <c r="D13">
         <v>7.4516129032258066E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -987,8 +1222,14 @@
       <c r="D14">
         <v>1.1483870967741934E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1001,8 +1242,14 @@
       <c r="D15">
         <v>1.0967741935483871E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1015,8 +1262,14 @@
       <c r="D16">
         <v>1.4516129032258063E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1029,8 +1282,14 @@
       <c r="D17">
         <v>1.6354838709677419E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1043,8 +1302,14 @@
       <c r="D18">
         <v>-2.578125E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1057,8 +1322,14 @@
       <c r="D19">
         <v>5.1953125000000004E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1071,8 +1342,14 @@
       <c r="D20">
         <v>4.7265624999999999E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1085,8 +1362,14 @@
       <c r="D21">
         <v>8.0468750000000001E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1099,8 +1382,14 @@
       <c r="D22">
         <v>1.26953125E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1113,8 +1402,14 @@
       <c r="D23">
         <v>1.23828125E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1127,8 +1422,14 @@
       <c r="D24">
         <v>1.6015625000000001E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.27680480000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1140,6 +1441,12 @@
       </c>
       <c r="D25">
         <v>4.375E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.1746480000000002E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.27680480000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1149,15 +1456,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891266B1-A182-8D43-9AC3-B58C6F5DBBB0}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,8 +1477,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1184,8 +1497,14 @@
       <c r="D2">
         <v>-6.3636363636363627E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1198,8 +1517,14 @@
       <c r="D3">
         <v>-2.0909090909090906E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1212,8 +1537,14 @@
       <c r="D4">
         <v>-3.0454545454545453E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1226,8 +1557,14 @@
       <c r="D5">
         <v>-1.1363636363636363E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1240,8 +1577,14 @@
       <c r="D6">
         <v>1.5909090909090907E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1254,8 +1597,14 @@
       <c r="D7">
         <v>3.8636363636363636E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1268,8 +1617,14 @@
       <c r="D8">
         <v>6.545454545454545E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1282,8 +1637,14 @@
       <c r="D9">
         <v>1.0909090909090908E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1296,8 +1657,14 @@
       <c r="D10">
         <v>-6.5841584158415849E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1310,8 +1677,14 @@
       <c r="D11">
         <v>-3.613861386138614E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1324,8 +1697,14 @@
       <c r="D12">
         <v>-2.9702970297029703E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1338,8 +1717,14 @@
       <c r="D13">
         <v>2.4257425742574257E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1352,8 +1737,14 @@
       <c r="D14">
         <v>6.2376237623762369E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1366,8 +1757,14 @@
       <c r="D15">
         <v>6.8811881188118813E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1380,8 +1777,14 @@
       <c r="D16">
         <v>1.0247524752475247E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1394,8 +1797,14 @@
       <c r="D17">
         <v>1.2970297029702972E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1408,8 +1817,14 @@
       <c r="D18">
         <v>-6.7759562841530056E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1422,8 +1837,14 @@
       <c r="D19">
         <v>-2.8961748633879782E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1436,8 +1857,14 @@
       <c r="D20">
         <v>-4.3715846994535517E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1450,8 +1877,14 @@
       <c r="D21">
         <v>1.174863387978142E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1464,8 +1897,14 @@
       <c r="D22">
         <v>1.174863387978142E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1478,8 +1917,14 @@
       <c r="D23">
         <v>1.0655737704918032E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1492,8 +1937,14 @@
       <c r="D24">
         <v>1.7540983606557377E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.38631779999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1505,6 +1956,12 @@
       </c>
       <c r="D25">
         <v>2.2349726775956283E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.533317E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.38631779999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1514,15 +1971,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884BF53-FBF0-5448-B280-1526C6805762}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="A1:XFD1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1535,8 +1992,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1549,8 +2012,14 @@
       <c r="D2">
         <v>1.65263240733454E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1563,8 +2032,14 @@
       <c r="D3">
         <v>9.9157944440072412E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1577,8 +2052,14 @@
       <c r="D4">
         <v>2.7543873455575666E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1591,8 +2072,14 @@
       <c r="D5">
         <v>6.6892264106398056E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1605,8 +2092,14 @@
       <c r="D6">
         <v>3.383961595970725E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1619,8 +2112,14 @@
       <c r="D7">
         <v>4.7218068780986861E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1633,8 +2132,14 @@
       <c r="D8">
         <v>5.1939875659085551E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1647,8 +2152,14 @@
       <c r="D9">
         <v>5.1939875659085551E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1661,8 +2172,14 @@
       <c r="D10">
         <v>2.0274299344066786E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1675,8 +2192,14 @@
       <c r="D11">
         <v>-2.6237328562909955E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1689,8 +2212,14 @@
       <c r="D12">
         <v>3.6970781156827672E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1703,8 +2232,14 @@
       <c r="D13">
         <v>8.8252832438878945E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1717,8 +2252,14 @@
       <c r="D14">
         <v>1.6696481812760881E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1731,8 +2272,14 @@
       <c r="D15">
         <v>1.7769827072152653E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1745,8 +2292,14 @@
       <c r="D16">
         <v>2.0989862850327964E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1759,8 +2312,14 @@
       <c r="D17">
         <v>2.4806201550387597E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1773,8 +2332,14 @@
       <c r="D18">
         <v>-2.2968197879858659E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1787,8 +2352,14 @@
       <c r="D19">
         <v>-5.8892815076560654E-7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1801,8 +2372,14 @@
       <c r="D20">
         <v>1.6489988221436984E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1815,8 +2392,14 @@
       <c r="D21">
         <v>1.1778563015312131E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1829,8 +2412,14 @@
       <c r="D22">
         <v>6.7137809187279158E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1843,8 +2432,14 @@
       <c r="D23">
         <v>7.3027090694935222E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1857,8 +2452,14 @@
       <c r="D24">
         <v>9.1283863368669024E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.1803891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1870,6 +2471,12 @@
       </c>
       <c r="D25">
         <v>1.2603062426383982E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.7393369999999997E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.1803891</v>
       </c>
     </row>
   </sheetData>
@@ -1879,15 +2486,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F54DDC-C844-1340-B869-6451EE6C41AD}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1900,8 +2507,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1914,8 +2527,14 @@
       <c r="D2">
         <v>-1.8264840182648401E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1928,8 +2547,14 @@
       <c r="D3">
         <v>1.06544901065449E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1942,8 +2567,14 @@
       <c r="D4">
         <v>-3.6529680365296803E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1956,8 +2587,14 @@
       <c r="D5">
         <v>-1.5220700152207001E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1970,8 +2607,14 @@
       <c r="D6">
         <v>1.6286149162861492E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1984,8 +2627,14 @@
       <c r="D7">
         <v>1.933028919330289E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1998,8 +2647,14 @@
       <c r="D8">
         <v>2.6331811263318112E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2012,8 +2667,14 @@
       <c r="D9">
         <v>3.3942161339421615E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2026,8 +2687,14 @@
       <c r="D10">
         <v>-7.1498530852105774E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2040,8 +2707,14 @@
       <c r="D11">
         <v>5.8765915768854066E-7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2054,8 +2727,14 @@
       <c r="D12">
         <v>-1.1753183153770813E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2068,8 +2747,14 @@
       <c r="D13">
         <v>4.7992164544564147E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2082,8 +2767,14 @@
       <c r="D14">
         <v>1.8315377081292847E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2096,8 +2787,14 @@
       <c r="D15">
         <v>1.4103819784524974E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2110,8 +2807,14 @@
       <c r="D16">
         <v>3.1047992164544562E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2124,8 +2827,14 @@
       <c r="D17">
         <v>4.7404505386875607E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2138,8 +2847,14 @@
       <c r="D18">
         <v>-2.9729993176722876E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2152,8 +2867,14 @@
       <c r="D19">
         <v>9.7475387464665157E-7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2166,8 +2887,14 @@
       <c r="D20">
         <v>-2.4368846866166294E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2180,8 +2907,14 @@
       <c r="D21">
         <v>4.1427039672482701E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2194,8 +2927,14 @@
       <c r="D22">
         <v>5.7997855541475779E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2208,8 +2947,14 @@
       <c r="D23">
         <v>6.8720148162588948E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2222,8 +2967,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.16569349999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2235,6 +2986,12 @@
       </c>
       <c r="D25">
         <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.8155290000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.16569349999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2244,15 +3001,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B6F410-0901-9745-9D25-C19676A09589}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="A1:XFD1048576"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2265,8 +3022,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2279,8 +3042,14 @@
       <c r="D2">
         <v>-2.4427480916030531E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2293,8 +3062,14 @@
       <c r="D3">
         <v>2.4045801526717557E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2307,8 +3082,14 @@
       <c r="D4">
         <v>3.8167938931297705E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2321,8 +3102,14 @@
       <c r="D5">
         <v>2.0610687022900762E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2335,8 +3122,14 @@
       <c r="D6">
         <v>6.0687022900763354E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2349,8 +3142,14 @@
       <c r="D7">
         <v>5.7251908396946556E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -2363,8 +3162,14 @@
       <c r="D8">
         <v>6.6412213740458018E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2377,8 +3182,14 @@
       <c r="D9">
         <v>9.5801526717557238E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2391,8 +3202,14 @@
       <c r="D10">
         <v>-2.1243523316062176E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2405,8 +3222,14 @@
       <c r="D11">
         <v>5.6994818652849741E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2419,8 +3242,14 @@
       <c r="D12">
         <v>-4.6632124352331611E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2433,8 +3262,14 @@
       <c r="D13">
         <v>2.590673575129534E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2447,8 +3282,14 @@
       <c r="D14">
         <v>4.2487046632124352E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2461,8 +3302,14 @@
       <c r="D15">
         <v>6.1658031088082912E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2475,8 +3322,14 @@
       <c r="D16">
         <v>8.860103626943006E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2489,8 +3342,14 @@
       <c r="D17">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2503,8 +3362,14 @@
       <c r="D18">
         <v>-6.9900142653352338E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2517,8 +3382,14 @@
       <c r="D19">
         <v>-4.1844983357108884E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2531,8 +3402,14 @@
       <c r="D20">
         <v>4.7551117451260096E-7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2545,8 +3422,14 @@
       <c r="D21">
         <v>-1.9020446980504039E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2559,8 +3442,14 @@
       <c r="D22">
         <v>3.1859248692344266E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2573,8 +3462,14 @@
       <c r="D23">
         <v>4.9928673323823109E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2587,8 +3482,14 @@
       <c r="D24">
         <v>7.7983832620066564E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.21842800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2600,6 +3501,12 @@
       </c>
       <c r="D25">
         <v>1.1459819305753684E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.6531579999999998E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.21842800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2609,15 +3516,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4491F085-E432-AF44-A71C-D007A5EA9573}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2630,8 +3537,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2644,8 +3557,14 @@
       <c r="D2">
         <v>-3.1619503122093795E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F2">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2658,8 +3577,14 @@
       <c r="D3">
         <v>1.620831672645144E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F3">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2672,8 +3597,14 @@
       <c r="D4">
         <v>-2.2319649262654444E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F4">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2686,8 +3617,14 @@
       <c r="D5">
         <v>-1.9928258270227178E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F5">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2700,8 +3637,14 @@
       <c r="D6">
         <v>-1.4879766175102962E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F6">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2714,8 +3657,14 @@
       <c r="D7">
         <v>-9.8312740799787422E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F7">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -2728,8 +3677,14 @@
       <c r="D8">
         <v>-3.7199415437757405E-6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F8">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2742,8 +3697,14 @@
       <c r="D9">
         <v>-5.1813471502590674E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F9">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2756,8 +3717,14 @@
       <c r="D10">
         <v>-1.9550038789759501E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F10">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2770,8 +3737,14 @@
       <c r="D11">
         <v>-4.9650892164468573E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F11">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2784,8 +3757,14 @@
       <c r="D12">
         <v>1.8308766485647787E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F12">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2798,8 +3777,14 @@
       <c r="D13">
         <v>1.8308766485647787E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F13">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2812,8 +3797,14 @@
       <c r="D14">
         <v>4.6858029480217222E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F14">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2826,8 +3817,14 @@
       <c r="D15">
         <v>5.3995345228859579E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F15">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2840,8 +3837,14 @@
       <c r="D16">
         <v>7.4786656322730794E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F16">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2854,8 +3857,14 @@
       <c r="D17">
         <v>1.0705973622963537E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F17">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2868,8 +3877,14 @@
       <c r="D18">
         <v>-2.4965962103991943E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F18">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2882,8 +3897,14 @@
       <c r="D19">
         <v>-9.2896603177644431E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F19">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2896,8 +3917,14 @@
       <c r="D20">
         <v>-1.0450867857484998E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F20">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2910,8 +3937,14 @@
       <c r="D21">
         <v>8.1284527780438879E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F21">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2924,8 +3957,14 @@
       <c r="D22">
         <v>2.5836867758782356E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F22">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2938,8 +3977,14 @@
       <c r="D23">
         <v>2.5546565873852217E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F23">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2952,8 +3997,14 @@
       <c r="D24">
         <v>5.1673735517564712E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F24">
+        <v>6.2490030000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2965,6 +4016,12 @@
       </c>
       <c r="D25">
         <v>8.4187546629740264E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.5100009999999999E-5</v>
+      </c>
+      <c r="F25">
+        <v>6.2490030000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2974,15 +4031,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94E5556-812E-DE4A-BA94-FF0EC41D3C5C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2995,8 +4052,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3009,8 +4072,14 @@
       <c r="D2">
         <v>-1.5744852644327817E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F2">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3023,8 +4092,14 @@
       <c r="D3">
         <v>-7.6705692369802192E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F3">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3037,8 +4112,14 @@
       <c r="D4">
         <v>-4.0371417036737989E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F4">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3051,8 +4132,14 @@
       <c r="D5">
         <v>1.4129995962858296E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F5">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -3065,8 +4152,14 @@
       <c r="D6">
         <v>4.6830843762616068E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F6">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -3079,8 +4172,14 @@
       <c r="D7">
         <v>6.7420266451352439E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -3093,8 +4192,14 @@
       <c r="D8">
         <v>7.1457408155026247E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F8">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -3107,8 +4212,14 @@
       <c r="D9">
         <v>1.0294711344368189E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F9">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3121,8 +4232,14 @@
       <c r="D10">
         <v>5.2434456928838956E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F10">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3135,8 +4252,14 @@
       <c r="D11">
         <v>1.3857677902621722E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F11">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3149,8 +4272,14 @@
       <c r="D12">
         <v>4.5318352059925092E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F12">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3163,8 +4292,14 @@
       <c r="D13">
         <v>6.0299625468164796E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F13">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -3177,8 +4312,14 @@
       <c r="D14">
         <v>7.0411985018726592E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F14">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -3191,8 +4332,14 @@
       <c r="D15">
         <v>-4.2696629213483148E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F15">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -3205,8 +4352,14 @@
       <c r="D16">
         <v>4.2696629213483148E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F16">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -3219,8 +4372,14 @@
       <c r="D17">
         <v>4.5692883895131087E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F17">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3233,8 +4392,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F18">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3247,8 +4412,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F19">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3261,8 +4432,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F20">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3275,8 +4452,14 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F21">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -3289,8 +4472,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F22">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -3303,8 +4492,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F23">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -3317,8 +4512,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F24">
+        <v>3.4963429999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3330,6 +4531,12 @@
       </c>
       <c r="D25">
         <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.8824559999999997E-5</v>
+      </c>
+      <c r="F25">
+        <v>3.4963429999999997E-2</v>
       </c>
     </row>
   </sheetData>
